--- a/data/token/WTRX.xlsx
+++ b/data/token/WTRX.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Date</t>
   </si>
@@ -41,6 +41,96 @@
   </si>
   <si>
     <t>2024-08-31</t>
+  </si>
+  <si>
+    <t>2024-10-03</t>
+  </si>
+  <si>
+    <t>2024-09-27</t>
+  </si>
+  <si>
+    <t>2024-09-26</t>
+  </si>
+  <si>
+    <t>2024-10-05</t>
+  </si>
+  <si>
+    <t>2024-10-04</t>
+  </si>
+  <si>
+    <t>2024-10-02</t>
+  </si>
+  <si>
+    <t>2024-10-01</t>
+  </si>
+  <si>
+    <t>2024-09-30</t>
+  </si>
+  <si>
+    <t>2024-08-02</t>
+  </si>
+  <si>
+    <t>2024-08-12</t>
+  </si>
+  <si>
+    <t>2024-09-25</t>
+  </si>
+  <si>
+    <t>2024-09-24</t>
+  </si>
+  <si>
+    <t>2024-09-23</t>
+  </si>
+  <si>
+    <t>2024-09-20</t>
+  </si>
+  <si>
+    <t>2024-09-18</t>
+  </si>
+  <si>
+    <t>2024-09-16</t>
+  </si>
+  <si>
+    <t>2024-09-14</t>
+  </si>
+  <si>
+    <t>2024-09-13</t>
+  </si>
+  <si>
+    <t>2024-09-12</t>
+  </si>
+  <si>
+    <t>2024-09-11</t>
+  </si>
+  <si>
+    <t>2024-09-10</t>
+  </si>
+  <si>
+    <t>2024-09-09</t>
+  </si>
+  <si>
+    <t>2024-09-08</t>
+  </si>
+  <si>
+    <t>2024-09-07</t>
+  </si>
+  <si>
+    <t>2024-09-06</t>
+  </si>
+  <si>
+    <t>2024-08-09</t>
+  </si>
+  <si>
+    <t>2024-07-24</t>
+  </si>
+  <si>
+    <t>2024-09-17</t>
+  </si>
+  <si>
+    <t>2024-08-05</t>
+  </si>
+  <si>
+    <t>2024-03-09</t>
   </si>
 </sst>
 </file>
@@ -398,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,6 +537,156 @@
         <v>8</v>
       </c>
     </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/token/WTRX.xlsx
+++ b/data/token/WTRX.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Date</t>
   </si>
@@ -131,6 +131,12 @@
   </si>
   <si>
     <t>2024-03-09</t>
+  </si>
+  <si>
+    <t>2024-11-15</t>
+  </si>
+  <si>
+    <t>2024-08-20</t>
   </si>
 </sst>
 </file>
@@ -488,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -687,6 +693,16 @@
         <v>38</v>
       </c>
     </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
